--- a/Data/Table/Text.xlsx
+++ b/Data/Table/Text.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD13D4D2-F53E-444D-983F-9C5101B7E4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637CBF84-84E0-4D62-8BE7-F805A961FACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3360" yWindow="3210" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1728" yWindow="3156" windowWidth="9636" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>AAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qqq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,13 +99,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -101,14 +113,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -466,20 +478,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="18" max="18" width="9" customWidth="1"/>
-    <col min="28" max="28" width="9.5" customWidth="1"/>
-    <col min="42" max="42" width="2.625" customWidth="1"/>
+    <col min="21" max="21" width="9" customWidth="1"/>
+    <col min="31" max="31" width="9.5" customWidth="1"/>
+    <col min="45" max="45" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -487,72 +499,77 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" t="s">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="7" t="s">
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="12"/>
       <c r="AH1" s="11"/>
       <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
+      <c r="AJ1" s="12"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
       <c r="AM1" s="11"/>
       <c r="AN1" s="11"/>
       <c r="AO1" s="11"/>
-      <c r="AP1" t="s">
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -560,140 +577,139 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="S2" t="s">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="V2" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
       <c r="AJ2" s="13"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
       <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3">
         <v>6</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>7</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>8</v>
       </c>
-      <c r="M3">
-        <v>9</v>
-      </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="P3">
+      <c r="W3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="4"/>
+      <c r="AH3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ3">
         <v>11</v>
       </c>
-      <c r="Q3">
-        <v>12</v>
-      </c>
-      <c r="T3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="4"/>
-      <c r="AE3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG3">
-        <v>11</v>
-      </c>
-      <c r="AI3">
+      <c r="AL3">
         <v>22</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AM3" s="4">
         <v>33</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AN3" s="4">
         <v>44</v>
       </c>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4">
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4">
         <v>55</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AQ3" s="4">
         <v>66</v>
       </c>
-      <c r="AO3" s="4"/>
+      <c r="AR3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/Table/Text.xlsx
+++ b/Data/Table/Text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\ExcelBuilder\Data\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637CBF84-84E0-4D62-8BE7-F805A961FACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEDC2C9-9B5B-48AF-BE1E-B75934262D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1728" yWindow="3156" windowWidth="9636" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="3780" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +76,18 @@
   </si>
   <si>
     <t>qqq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,13 +99,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -113,14 +113,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -175,14 +175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -478,238 +477,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:BT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BP9" sqref="BP9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="21" max="21" width="9" customWidth="1"/>
-    <col min="31" max="31" width="9.5" customWidth="1"/>
-    <col min="45" max="45" width="2.59765625" customWidth="1"/>
+    <col min="30" max="30" width="9" customWidth="1"/>
+    <col min="45" max="49" width="9.5" customWidth="1"/>
+    <col min="72" max="72" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="7" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AJ1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" t="s">
-        <v>7</v>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="10"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="10"/>
+      <c r="BT1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="V2" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AE2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
+      <c r="AJ2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
       <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>7.88</v>
+      </c>
+      <c r="E3">
+        <v>1.56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>12.2</v>
+      </c>
+      <c r="N3">
+        <v>180.9</v>
+      </c>
+      <c r="O3" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>8</v>
+      </c>
+      <c r="AF3">
+        <v>11</v>
+      </c>
+      <c r="AG3">
+        <v>32423</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="AL3">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
         <v>4</v>
       </c>
-      <c r="I3">
+      <c r="AS3">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3">
+      <c r="AT3">
+        <v>2</v>
+      </c>
+      <c r="AU3">
+        <v>1.5</v>
+      </c>
+      <c r="AV3">
+        <v>6.4</v>
+      </c>
+      <c r="AW3">
+        <v>4409</v>
+      </c>
+      <c r="AX3">
         <v>6</v>
       </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3">
-        <v>8</v>
-      </c>
-      <c r="W3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>4</v>
-      </c>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>6</v>
-      </c>
-      <c r="AG3" s="4"/>
-      <c r="AH3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ3">
+      <c r="AZ3">
+        <v>987</v>
+      </c>
+      <c r="BA3">
+        <v>799</v>
+      </c>
+      <c r="BC3">
         <v>11</v>
       </c>
-      <c r="AL3">
+      <c r="BE3">
         <v>22</v>
       </c>
-      <c r="AM3" s="4">
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
         <v>33</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="BK3">
         <v>44</v>
       </c>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4">
+      <c r="BM3">
         <v>55</v>
       </c>
-      <c r="AQ3" s="4">
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3">
         <v>66</v>
       </c>
-      <c r="AR3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/Table/Text.xlsx
+++ b/Data/Table/Text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54939\RiderProjects\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEDC2C9-9B5B-48AF-BE1E-B75934262D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5010BD7A-BE19-4736-B24B-83C049969D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="3780" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,62 @@
   </si>
   <si>
     <t>Vector2Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7.88,1.56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,12.2,180.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4,4409,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,1,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113,2423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>987,799</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -197,6 +253,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,336 +534,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT3"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BP9" sqref="BP9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="30" max="30" width="9" customWidth="1"/>
-    <col min="45" max="49" width="9.5" customWidth="1"/>
-    <col min="72" max="72" width="2.625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.44140625" customWidth="1"/>
+    <col min="42" max="42" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="W1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="Y1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" t="s">
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="8" t="s">
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" t="s">
         <v>6</v>
       </c>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="10"/>
-      <c r="BT1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="S2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AE2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="12"/>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="12"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>7.88</v>
-      </c>
-      <c r="E3">
-        <v>1.56</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="X3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG3">
         <v>11</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>12.2</v>
-      </c>
-      <c r="N3">
-        <v>180.9</v>
-      </c>
-      <c r="O3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3">
-        <v>6</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>7</v>
-      </c>
-      <c r="T3">
-        <v>8</v>
-      </c>
-      <c r="AF3">
-        <v>11</v>
-      </c>
-      <c r="AG3">
-        <v>32423</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
+      <c r="AI3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>26</v>
       </c>
       <c r="AK3">
-        <v>2</v>
-      </c>
-      <c r="AL3">
-        <v>3</v>
-      </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
-      <c r="AQ3">
-        <v>4</v>
-      </c>
-      <c r="AS3">
-        <v>5</v>
-      </c>
-      <c r="AT3">
-        <v>2</v>
-      </c>
-      <c r="AU3">
-        <v>1.5</v>
-      </c>
-      <c r="AV3">
-        <v>6.4</v>
-      </c>
-      <c r="AW3">
-        <v>4409</v>
-      </c>
-      <c r="AX3">
-        <v>6</v>
-      </c>
-      <c r="AZ3">
-        <v>987</v>
-      </c>
-      <c r="BA3">
-        <v>799</v>
-      </c>
-      <c r="BC3">
-        <v>11</v>
-      </c>
-      <c r="BE3">
-        <v>22</v>
-      </c>
-      <c r="BF3">
-        <v>1</v>
-      </c>
-      <c r="BG3">
-        <v>1</v>
-      </c>
-      <c r="BH3">
-        <v>1</v>
-      </c>
-      <c r="BI3">
-        <v>1</v>
-      </c>
-      <c r="BJ3">
-        <v>33</v>
-      </c>
-      <c r="BK3">
         <v>44</v>
       </c>
-      <c r="BM3">
-        <v>55</v>
-      </c>
-      <c r="BN3">
-        <v>1</v>
-      </c>
-      <c r="BO3">
-        <v>66</v>
+      <c r="AM3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
